--- a/Banco de Dados/Diagramas/Lattine-Group-Diagrama-Físico.xlsx
+++ b/Banco de Dados/Diagramas/Lattine-Group-Diagrama-Físico.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20384"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20385"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\48395996888.INFOSCS\Desktop\Banco_de_Dados\Diagramas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\48395996888.INFOSCS\Desktop\Lattine-Group\Banco de Dados\Diagramas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3D8F5AA-2BB9-4CDE-8529-84F17E368013}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F507AD03-17FD-4920-98BC-8D54B80FC03E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" firstSheet="3" activeTab="4" xr2:uid="{E30448CC-7EA3-4752-9CDC-02B07D02F3F0}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" firstSheet="7" activeTab="11" xr2:uid="{E30448CC-7EA3-4752-9CDC-02B07D02F3F0}"/>
   </bookViews>
   <sheets>
     <sheet name="contatosLattine" sheetId="1" r:id="rId1"/>
@@ -904,8 +904,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7407D5D-694B-44E3-BA41-E571F242DF4D}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1205,7 +1205,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{803615B4-3C70-42E7-A044-A77B97E9C5BB}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
